--- a/3-1/데이터베이스시스템_기출.xlsx
+++ b/3-1/데이터베이스시스템_기출.xlsx
@@ -8,19 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bacbd6586d17699e/바탕 화면/3-1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="8_{DD8A23EC-BAC1-4EE7-BEFF-101F2976ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D73ECA15-170E-41ED-A813-6A68B5E29B04}"/>
+  <xr:revisionPtr revIDLastSave="426" documentId="8_{DD8A23EC-BAC1-4EE7-BEFF-101F2976ABE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4599A149-4D4B-4E8B-8C5D-11B674910601}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{5C7B36F0-6356-40D7-B295-EC2F93FFA763}"/>
   </bookViews>
   <sheets>
     <sheet name="2019" sheetId="1" r:id="rId1"/>
-    <sheet name="2020" sheetId="4" r:id="rId2"/>
-    <sheet name="연습문제" sheetId="3" r:id="rId3"/>
+    <sheet name="2018" sheetId="4" r:id="rId2"/>
+    <sheet name="2017" sheetId="5" r:id="rId3"/>
+    <sheet name="연습문제" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'2017'!$B$1:$B$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2018'!$B$1:$B$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2019'!$B$1:$B$32</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'2020'!$B$1:$B$20</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">연습문제!$B$1:$B$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">연습문제!$B$1:$B$32</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="149">
   <si>
     <t>문제</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11319,6 +11321,1149 @@
         <charset val="129"/>
       </rPr>
       <t xml:space="preserve"> 상태는?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>동거자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일 처리 방식</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>의 데이터 관리로 발생할 수 있는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 문제점</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">으로 볼 수 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">없는 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">것은?
+1) 데이터의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중복</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2) 데이터의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>독립성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3) 데이터의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>무결성 훼손</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4) 동시 접근 이상
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ER 다이어그램</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 해석
+- 부서에는 한 명 이상의 사원이 근무 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 각 부서에는 근무하는 사원이 반드시 존재 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 한 명의 사원은 여러 특기를 가짐. (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)
+- 사원은 한 개 이상의 부서에 근무 가능 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>O/X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>전화번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">와 같이 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">ER </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">다이어그램에서 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중괄호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">로 묶인 속성은 어떤 유형인가?
+1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>유도</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 속성
+2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>다중값</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 속성
+3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>복합</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 속성
+4) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>저장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 속성
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>2차원 형태</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>표</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에 데이터를 저장/관리하는 모델은?
+1) 객체-관계형 모델
+2) 그래프 모델
+3) ER 모델
+4) 관계형 모델
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>그림에서 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>)와 (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">)에 들어갈 말로 올바르게 짝지어진 것은?
+1) 데이터 - 표머리
+2) 레코드 - 스키마
+3) 투플 - 카디널리티
+4) 열 - 행
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관계형 모델</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>은 어떤 모델링 단계를 위한 모델인가?
+ㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ㅇ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">적 데이터 모델링 단계
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">한 조직의 연관된 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>집합</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을 다수의 사용자가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 공용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">하기 위해 통합 저장하는 소프트웨어 패키지는?
+1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터베이스</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터베이스 관리 시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+4) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>파일 처리 시스템</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>(1)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제1정규형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, (2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제2정규형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>, (3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제3정규형</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">을 제약 수준이 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>약한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 순에서 강한 순으로 나열
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">모든 칼럼의 길이가 정해져 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>레코드</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>길이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가 항상 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">한 레코드는?
+1) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경 불가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 레코드
+2) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">가변 길이 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">레코드
+3) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>변경 가능</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 레코드
+4) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>고정 길이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 레코드
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>사번, 이름, 주민번호, 주소, 부서 중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 유일성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>과</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 최소성</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">이 후보키의 특성임을 고려할 때, 후보키인 것은?
+1) 사번, 주민번호
+2) 주민번호
+3) 사번, 이름
+4) 사번, 이름, 주민번호, 주소, 부서
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>서로 다른 두 레코드 R1과 R2의 검색키가 h에 의해</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve"> 동일</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버킷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대응</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">되었을 때, R1과 R2의 관계는?
+</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>DBMS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">에서 사용하는 기법으로 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하나</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 논리적인 작업을 처리하기 위한 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>연속</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">된 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="4"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>데이터베이스 명령어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="D2Coding"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">의 집합은?
 </t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -11758,6 +12903,99 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4088295</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>45795</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>7146012</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1040295</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CE1310E-8D22-7B69-3220-6FAC96566D33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5864086" y="1384265"/>
+          <a:ext cx="3057717" cy="994500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4518991</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>53008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>6740986</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1046921</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B439953-38BA-B781-F999-E0DFE95CF19D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6294782" y="4691269"/>
+          <a:ext cx="2221995" cy="993913"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -12408,7 +13646,7 @@
     <row r="2" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A32" ca="1" si="0">RAND()</f>
-        <v>0.52598620633991466</v>
+        <v>0.81641749082498527</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B32" si="1">IF(C2=D2,"O","X")</f>
@@ -12433,7 +13671,7 @@
     <row r="3" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.4257370397005076E-2</v>
+        <v>1.8007641021514309E-2</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12458,7 +13696,7 @@
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4329214705214629</v>
+        <v>7.7028631401948155E-2</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12483,7 +13721,7 @@
     <row r="5" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27306288201406681</v>
+        <v>0.66324594408196902</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12508,7 +13746,7 @@
     <row r="6" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60811001431708667</v>
+        <v>0.30739212002591854</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12533,7 +13771,7 @@
     <row r="7" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64802171818865728</v>
+        <v>0.63349060558239045</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12558,7 +13796,7 @@
     <row r="8" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71386246681689713</v>
+        <v>0.51984450446447084</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12583,7 +13821,7 @@
     <row r="9" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8039255178658874</v>
+        <v>0.67861940026592549</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" ref="B9" si="2">IF(C9=D9,"O","X")</f>
@@ -12608,7 +13846,7 @@
     <row r="10" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17395022392840764</v>
+        <v>0.70101905831212863</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12633,7 +13871,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79691607817817922</v>
+        <v>3.3035342183487471E-2</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12658,7 +13896,7 @@
     <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16148414002366562</v>
+        <v>0.20444902695035427</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12683,7 +13921,7 @@
     <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65446632778763203</v>
+        <v>0.59097730653907543</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12708,7 +13946,7 @@
     <row r="14" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24935273250686807</v>
+        <v>0.61003421645717459</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12733,7 +13971,7 @@
     <row r="15" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21678961227276228</v>
+        <v>0.64468344291305268</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12758,7 +13996,7 @@
     <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12506620034763594</v>
+        <v>0.43163937575080635</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12783,7 +14021,7 @@
     <row r="17" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79633786832123477</v>
+        <v>0.95230150600787877</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12808,7 +14046,7 @@
     <row r="18" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8008489546812019E-2</v>
+        <v>0.44451392103052001</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12833,7 +14071,7 @@
     <row r="19" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21300139017941122</v>
+        <v>0.50621718125470316</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12858,7 +14096,7 @@
     <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81773100626870221</v>
+        <v>0.6736723195460308</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12883,7 +14121,7 @@
     <row r="21" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53844669086122021</v>
+        <v>0.78411200151759264</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12908,7 +14146,7 @@
     <row r="22" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91092182912311292</v>
+        <v>6.9392273230634016E-2</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12933,7 +14171,7 @@
     <row r="23" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42284146629792407</v>
+        <v>0.19778280215127098</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12958,7 +14196,7 @@
     <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79995038622428116</v>
+        <v>0.27718730450946027</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -12983,7 +14221,7 @@
     <row r="25" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15845023742364661</v>
+        <v>0.3237178580755119</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13008,7 +14246,7 @@
     <row r="26" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5.501620946606256E-2</v>
+        <v>0.57239473218504444</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13033,7 +14271,7 @@
     <row r="27" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.642350518076154E-3</v>
+        <v>0.94277689234385686</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13058,7 +14296,7 @@
     <row r="28" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>7.451262077973142E-2</v>
+        <v>0.85478820237105979</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13083,7 +14321,7 @@
     <row r="29" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.5662109384505083E-2</v>
+        <v>2.6831519195160025E-2</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13108,7 +14346,7 @@
     <row r="30" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23083563458106471</v>
+        <v>0.29649477994535034</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13133,7 +14371,7 @@
     <row r="31" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92396672195147</v>
+        <v>0.61965491507914561</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13158,7 +14396,7 @@
     <row r="32" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59117581404799491</v>
+        <v>0.89957257161929549</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13200,7 +14438,7 @@
   </sheetPr>
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -13236,7 +14474,7 @@
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A20" ca="1" si="0">RAND()</f>
-        <v>0.39661831852644813</v>
+        <v>0.825846084832494</v>
       </c>
       <c r="B2" s="3" t="str">
         <f t="shared" ref="B2:B20" si="1">IF(C2=D2,"O","X")</f>
@@ -13258,7 +14496,7 @@
     <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53533733248739512</v>
+        <v>0.4401019531182383</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13280,7 +14518,7 @@
     <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.1951351169808415E-2</v>
+        <v>0.71229617349576901</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13302,7 +14540,7 @@
     <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76696559953528143</v>
+        <v>0.3771647348669549</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13324,7 +14562,7 @@
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83590931593048812</v>
+        <v>0.98442220761856358</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13346,7 +14584,7 @@
     <row r="7" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9984240413496472E-3</v>
+        <v>0.78421470250423952</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13368,7 +14606,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10448733978240488</v>
+        <v>0.12224166412098858</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13390,7 +14628,7 @@
     <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8959340830035494E-2</v>
+        <v>0.76373400553176229</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13412,7 +14650,7 @@
     <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5462826380154522E-2</v>
+        <v>0.22728295080961458</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13434,7 +14672,7 @@
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27966751210185625</v>
+        <v>0.57639313159439143</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13456,7 +14694,7 @@
     <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19835271019621581</v>
+        <v>0.83679005156731656</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13478,7 +14716,7 @@
     <row r="13" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14611912399613647</v>
+        <v>0.57365023876961674</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13500,7 +14738,7 @@
     <row r="14" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44123222881093249</v>
+        <v>0.27222846189656946</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13522,7 +14760,7 @@
     <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1062194499867406</v>
+        <v>0.9458445785937919</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13544,7 +14782,7 @@
     <row r="16" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30029971999838712</v>
+        <v>0.56402977894498352</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13566,7 +14804,7 @@
     <row r="17" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0576094582559592E-2</v>
+        <v>0.64404788185891826</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13588,7 +14826,7 @@
     <row r="18" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58196348187889035</v>
+        <v>0.25248109641946459</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13610,7 +14848,7 @@
     <row r="19" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88194466322253295</v>
+        <v>1.6372634925066687E-2</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13632,7 +14870,7 @@
     <row r="20" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87607511741328636</v>
+        <v>0.45223021535104657</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13661,14 +14899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58E651C-644A-4303-B6C6-687D9D32FB54}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B1646BE-92C5-46ED-8914-3CBEDA0698C9}">
   <sheetPr>
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
@@ -13702,21 +14940,21 @@
     </row>
     <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A2" s="3">
-        <f t="shared" ref="A2:A47" ca="1" si="0">RAND()</f>
-        <v>6.2391226644609055E-2</v>
+        <f t="shared" ref="A2:A13" ca="1" si="0">RAND()</f>
+        <v>0.22405122907969044</v>
       </c>
       <c r="B2" s="3" t="str">
-        <f t="shared" ref="B2:B29" si="1">IF(C2=D2,"O","X")</f>
+        <f t="shared" ref="B2:B13" si="1">IF(C2=D2,"O","X")</f>
         <v>X</v>
       </c>
       <c r="C2" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>58</v>
+        <v>137</v>
       </c>
       <c r="F2" s="1">
-        <v>1</v>
+        <v>2017</v>
       </c>
       <c r="G2" s="3">
         <v>1</v>
@@ -13725,29 +14963,342 @@
     <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25645098168210767</v>
+        <v>0.78542447522314573</v>
       </c>
       <c r="B3" s="3" t="str">
         <f t="shared" si="1"/>
         <v>X</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>59</v>
+        <v>138</v>
       </c>
       <c r="F3" s="1">
-        <v>1</v>
+        <v>2017</v>
       </c>
       <c r="G3" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86284975164628719</v>
+        <v>0.99987517059078157</v>
+      </c>
+      <c r="B4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A5" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81513691387497833</v>
+      </c>
+      <c r="B5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G5" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A6" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5153019375065393</v>
+      </c>
+      <c r="B6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
+      <c r="A7" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31784516493700199</v>
+      </c>
+      <c r="B7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G7" s="3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A8" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62964029484473016</v>
+      </c>
+      <c r="B8" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G8" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A9" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.65800969939665888</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C9" s="2">
+        <v>123</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G9" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A10" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.22464847928441378</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G10" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.47878471002308709</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G11" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A12" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42796810110250172</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G12" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
+      <c r="A13" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.34540065204543002</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2017</v>
+      </c>
+      <c r="G13" s="3">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B13" xr:uid="{BA3C692D-9FB4-42C5-8ADB-F98177B5FAED}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B58E651C-644A-4303-B6C6-687D9D32FB54}">
+  <sheetPr>
+    <tabColor theme="9"/>
+  </sheetPr>
+  <dimension ref="A1:G47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A33" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.4" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="4.8984375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.19921875" style="2" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="127.3984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.09765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.59765625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A2" s="3">
+        <f t="shared" ref="A2:A47" ca="1" si="0">RAND()</f>
+        <v>0.10530067500287843</v>
+      </c>
+      <c r="B2" s="3" t="str">
+        <f t="shared" ref="B2:B29" si="1">IF(C2=D2,"O","X")</f>
+        <v>X</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A3" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25252070105859004</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>X</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
+      <c r="A4" s="3">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.26903438993911699</v>
       </c>
       <c r="B4" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13769,7 +15320,7 @@
     <row r="5" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65021578205634245</v>
+        <v>0.84906540723801427</v>
       </c>
       <c r="B5" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13791,7 +15342,7 @@
     <row r="6" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5989042881241039</v>
+        <v>0.2361725692122254</v>
       </c>
       <c r="B6" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13813,7 +15364,7 @@
     <row r="7" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37522112230711024</v>
+        <v>6.2389481885626874E-2</v>
       </c>
       <c r="B7" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13835,7 +15386,7 @@
     <row r="8" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43645343392266578</v>
+        <v>0.36566329998031599</v>
       </c>
       <c r="B8" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13857,7 +15408,7 @@
     <row r="9" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81831722647122696</v>
+        <v>0.75292184384988059</v>
       </c>
       <c r="B9" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13879,7 +15430,7 @@
     <row r="10" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46074076871914482</v>
+        <v>0.38515677853306818</v>
       </c>
       <c r="B10" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13901,7 +15452,7 @@
     <row r="11" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A11" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18322703704008936</v>
+        <v>0.8588769268302362</v>
       </c>
       <c r="B11" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13923,7 +15474,7 @@
     <row r="12" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A12" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57185661865260506</v>
+        <v>0.23249476909884559</v>
       </c>
       <c r="B12" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13945,7 +15496,7 @@
     <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.4">
       <c r="A13" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72482895981162188</v>
+        <v>2.6488538034339704E-2</v>
       </c>
       <c r="B13" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13967,7 +15518,7 @@
     <row r="14" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A14" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11951646433218011</v>
+        <v>2.763034343198445E-2</v>
       </c>
       <c r="B14" s="3" t="str">
         <f t="shared" si="1"/>
@@ -13989,7 +15540,7 @@
     <row r="15" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A15" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.70321557652038025</v>
+        <v>0.53267751542935649</v>
       </c>
       <c r="B15" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14011,7 +15562,7 @@
     <row r="16" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A16" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.74424099915510711</v>
+        <v>0.80702938067008179</v>
       </c>
       <c r="B16" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14033,7 +15584,7 @@
     <row r="17" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A17" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42854421911195328</v>
+        <v>0.69084485578424026</v>
       </c>
       <c r="B17" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14055,7 +15606,7 @@
     <row r="18" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A18" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68329743090242334</v>
+        <v>0.80569678941097245</v>
       </c>
       <c r="B18" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14077,7 +15628,7 @@
     <row r="19" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A19" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68734351430456886</v>
+        <v>0.87361475028087676</v>
       </c>
       <c r="B19" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14099,7 +15650,7 @@
     <row r="20" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A20" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63866497819501733</v>
+        <v>0.22004063489621539</v>
       </c>
       <c r="B20" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14121,7 +15672,7 @@
     <row r="21" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A21" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12772415009247973</v>
+        <v>0.30011557716163439</v>
       </c>
       <c r="B21" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14143,7 +15694,7 @@
     <row r="22" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A22" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73297110301959467</v>
+        <v>0.89040619503731966</v>
       </c>
       <c r="B22" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14165,7 +15716,7 @@
     <row r="23" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A23" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36275817098131613</v>
+        <v>0.59272523056031468</v>
       </c>
       <c r="B23" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14187,7 +15738,7 @@
     <row r="24" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A24" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79206992005568388</v>
+        <v>0.86263944051067099</v>
       </c>
       <c r="B24" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14209,7 +15760,7 @@
     <row r="25" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A25" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81885574483585788</v>
+        <v>0.20697339069368703</v>
       </c>
       <c r="B25" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14231,7 +15782,7 @@
     <row r="26" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A26" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12933919004746197</v>
+        <v>0.93479036473357335</v>
       </c>
       <c r="B26" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14253,7 +15804,7 @@
     <row r="27" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A27" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86737729491117321</v>
+        <v>0.38672835184790666</v>
       </c>
       <c r="B27" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14275,7 +15826,7 @@
     <row r="28" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A28" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56658528928451712</v>
+        <v>0.83718436347659275</v>
       </c>
       <c r="B28" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14297,7 +15848,7 @@
     <row r="29" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A29" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41155244311123873</v>
+        <v>0.1841921473270558</v>
       </c>
       <c r="B29" s="3" t="str">
         <f t="shared" si="1"/>
@@ -14319,7 +15870,7 @@
     <row r="30" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A30" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83653911480605114</v>
+        <v>0.82542502146248575</v>
       </c>
       <c r="B30" s="3" t="str">
         <f t="shared" ref="B30:B47" si="2">IF(C30=D30,"O","X")</f>
@@ -14341,7 +15892,7 @@
     <row r="31" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A31" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1129855006058631</v>
+        <v>3.0259791091885369E-2</v>
       </c>
       <c r="B31" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14363,7 +15914,7 @@
     <row r="32" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A32" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.115119543846957</v>
+        <v>0.49289836598116099</v>
       </c>
       <c r="B32" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14385,7 +15936,7 @@
     <row r="33" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A33" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56112869074907734</v>
+        <v>0.32412163744721301</v>
       </c>
       <c r="B33" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14407,7 +15958,7 @@
     <row r="34" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A34" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0765208787596792E-2</v>
+        <v>0.14906335594509712</v>
       </c>
       <c r="B34" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14429,7 +15980,7 @@
     <row r="35" spans="1:7" ht="115.2" x14ac:dyDescent="0.4">
       <c r="A35" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82061615991958026</v>
+        <v>0.66432857067250439</v>
       </c>
       <c r="B35" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14451,7 +16002,7 @@
     <row r="36" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A36" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89045154131030091</v>
+        <v>0.96059738659451588</v>
       </c>
       <c r="B36" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14473,7 +16024,7 @@
     <row r="37" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A37" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4840548138807037E-2</v>
+        <v>0.63279058427793244</v>
       </c>
       <c r="B37" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14495,7 +16046,7 @@
     <row r="38" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A38" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.375869299691586E-3</v>
+        <v>5.0647706449981622E-2</v>
       </c>
       <c r="B38" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14517,7 +16068,7 @@
     <row r="39" spans="1:7" ht="43.2" x14ac:dyDescent="0.4">
       <c r="A39" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11370187300066525</v>
+        <v>0.71774852242511844</v>
       </c>
       <c r="B39" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14539,7 +16090,7 @@
     <row r="40" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A40" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88290364026654156</v>
+        <v>0.57269947748428873</v>
       </c>
       <c r="B40" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14561,7 +16112,7 @@
     <row r="41" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A41" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2037835234823212</v>
+        <v>0.61236975805707738</v>
       </c>
       <c r="B41" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14583,7 +16134,7 @@
     <row r="42" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A42" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63444750438021624</v>
+        <v>0.65750110399091732</v>
       </c>
       <c r="B42" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14605,7 +16156,7 @@
     <row r="43" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A43" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67889113730408845</v>
+        <v>0.30498344795790311</v>
       </c>
       <c r="B43" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14627,7 +16178,7 @@
     <row r="44" spans="1:7" ht="28.8" x14ac:dyDescent="0.4">
       <c r="A44" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54246576650323231</v>
+        <v>0.61235409136976127</v>
       </c>
       <c r="B44" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14649,7 +16200,7 @@
     <row r="45" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A45" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>6.9656462530686025E-2</v>
+        <v>4.1354274526360202E-2</v>
       </c>
       <c r="B45" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14671,7 +16222,7 @@
     <row r="46" spans="1:7" ht="86.4" x14ac:dyDescent="0.4">
       <c r="A46" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99586629199021548</v>
+        <v>0.89173506212059195</v>
       </c>
       <c r="B46" s="3" t="str">
         <f t="shared" si="2"/>
@@ -14693,7 +16244,7 @@
     <row r="47" spans="1:7" ht="100.8" x14ac:dyDescent="0.4">
       <c r="A47" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67811017029060228</v>
+        <v>0.82002826480873581</v>
       </c>
       <c r="B47" s="3" t="str">
         <f t="shared" si="2"/>
